--- a/prep_data/2025_punting_offense.xlsx
+++ b/prep_data/2025_punting_offense.xlsx
@@ -492,99 +492,99 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>2588</v>
+        <v>2978</v>
       </c>
       <c r="E2" t="n">
-        <v>51.76</v>
+        <v>51.34</v>
       </c>
       <c r="F2" t="n">
         <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>42.44</v>
+        <v>42.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2102</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>72</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2205</v>
-      </c>
-      <c r="E3" t="n">
-        <v>51.28</v>
-      </c>
-      <c r="F3" t="n">
-        <v>74</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>45.47</v>
+        <v>42.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>2045</v>
+        <v>2424</v>
       </c>
       <c r="E4" t="n">
-        <v>51.12</v>
+        <v>50.5</v>
       </c>
       <c r="F4" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>42.7</v>
+        <v>44.92</v>
       </c>
     </row>
     <row r="5">
@@ -594,16 +594,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>2958</v>
+        <v>3088</v>
       </c>
       <c r="E5" t="n">
-        <v>50.14</v>
+        <v>49.81</v>
       </c>
       <c r="F5" t="n">
         <v>70</v>
@@ -612,13 +612,13 @@
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>42.69</v>
+        <v>42.73</v>
       </c>
     </row>
     <row r="6">
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>1991</v>
+        <v>2424</v>
       </c>
       <c r="E6" t="n">
-        <v>49.77</v>
+        <v>49.47</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -646,115 +646,115 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>41.73</v>
+        <v>42.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>2038</v>
+        <v>1864</v>
       </c>
       <c r="E7" t="n">
-        <v>49.71</v>
+        <v>49.05</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.78</v>
+        <v>44.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>1535</v>
+        <v>2492</v>
       </c>
       <c r="E8" t="n">
-        <v>49.52</v>
+        <v>48.86</v>
       </c>
       <c r="F8" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>45.32</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
-        <v>2306</v>
+        <v>2243</v>
       </c>
       <c r="E9" t="n">
-        <v>49.06</v>
+        <v>48.76</v>
       </c>
       <c r="F9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>42.08</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="10">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>2489</v>
+        <v>2630</v>
       </c>
       <c r="E10" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="F10" t="n">
         <v>77</v>
@@ -782,140 +782,140 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.59</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>1747</v>
+        <v>2524</v>
       </c>
       <c r="E11" t="n">
-        <v>48.53</v>
+        <v>48.54</v>
       </c>
       <c r="F11" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>42.44</v>
+        <v>42.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>2129</v>
+        <v>1831</v>
       </c>
       <c r="E12" t="n">
-        <v>48.39</v>
+        <v>48.18</v>
       </c>
       <c r="F12" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>43.45</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D13" t="n">
-        <v>2220</v>
+        <v>3051</v>
       </c>
       <c r="E13" t="n">
-        <v>48.26</v>
+        <v>47.67</v>
       </c>
       <c r="F13" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.96</v>
+        <v>41.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>1959</v>
+        <v>2613</v>
       </c>
       <c r="E14" t="n">
-        <v>47.78</v>
+        <v>47.51</v>
       </c>
       <c r="F14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>20</v>
@@ -924,165 +924,165 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.46</v>
+        <v>42.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
-        <v>2720</v>
+        <v>3183</v>
       </c>
       <c r="E15" t="n">
-        <v>47.72</v>
+        <v>47.51</v>
       </c>
       <c r="F15" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>43.49</v>
+        <v>41.51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D16" t="n">
-        <v>2957</v>
+        <v>2516</v>
       </c>
       <c r="E16" t="n">
-        <v>47.69</v>
+        <v>47.47</v>
       </c>
       <c r="F16" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.56</v>
+        <v>40.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>2750</v>
+        <v>2362</v>
       </c>
       <c r="E17" t="n">
-        <v>47.41</v>
+        <v>47.24</v>
       </c>
       <c r="F17" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>40.91</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>2084</v>
+        <v>2362</v>
       </c>
       <c r="E18" t="n">
-        <v>47.36</v>
+        <v>47.24</v>
       </c>
       <c r="F18" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>39.8</v>
+        <v>43.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D19" t="n">
-        <v>2415</v>
+        <v>2168</v>
       </c>
       <c r="E19" t="n">
-        <v>47.35</v>
+        <v>47.13</v>
       </c>
       <c r="F19" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1091,282 +1091,282 @@
         <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.87</v>
+        <v>39.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
+        <v>64</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3008</v>
+      </c>
+      <c r="E20" t="n">
         <v>47</v>
       </c>
-      <c r="D20" t="n">
-        <v>2197</v>
-      </c>
-      <c r="E20" t="n">
-        <v>46.74</v>
-      </c>
       <c r="F20" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>41.94</v>
+        <v>43.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D21" t="n">
-        <v>1776</v>
+        <v>3259</v>
       </c>
       <c r="E21" t="n">
-        <v>46.74</v>
+        <v>46.56</v>
       </c>
       <c r="F21" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.03</v>
+        <v>40.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D22" t="n">
-        <v>1956</v>
+        <v>2931</v>
       </c>
       <c r="E22" t="n">
-        <v>46.57</v>
+        <v>46.52</v>
       </c>
       <c r="F22" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>38.95</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>2980</v>
+        <v>2185</v>
       </c>
       <c r="E23" t="n">
-        <v>46.56</v>
+        <v>46.49</v>
       </c>
       <c r="F23" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>40.17</v>
+        <v>40.57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>1804</v>
+        <v>2501</v>
       </c>
       <c r="E24" t="n">
-        <v>46.26</v>
+        <v>46.31</v>
       </c>
       <c r="F24" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.87</v>
+        <v>41.96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D25" t="n">
-        <v>2120</v>
+        <v>2359</v>
       </c>
       <c r="E25" t="n">
-        <v>46.09</v>
+        <v>46.25</v>
       </c>
       <c r="F25" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.07</v>
+        <v>42.76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" t="n">
-        <v>2050</v>
+        <v>2108</v>
       </c>
       <c r="E26" t="n">
-        <v>45.56</v>
+        <v>45.83</v>
       </c>
       <c r="F26" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>42.24</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D27" t="n">
-        <v>2260</v>
+        <v>3712</v>
       </c>
       <c r="E27" t="n">
-        <v>45.2</v>
+        <v>45.27</v>
       </c>
       <c r="F27" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>39.06</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="28">
@@ -1376,16 +1376,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D28" t="n">
-        <v>2071</v>
+        <v>2212</v>
       </c>
       <c r="E28" t="n">
-        <v>45.02</v>
+        <v>45.14</v>
       </c>
       <c r="F28" t="n">
         <v>61</v>
@@ -1394,81 +1394,81 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>37.7</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D29" t="n">
-        <v>1616</v>
+        <v>2559</v>
       </c>
       <c r="E29" t="n">
         <v>44.89</v>
       </c>
       <c r="F29" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>41.5</v>
+        <v>38.59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D30" t="n">
-        <v>3270</v>
+        <v>1927</v>
       </c>
       <c r="E30" t="n">
-        <v>44.79</v>
+        <v>44.81</v>
       </c>
       <c r="F30" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>35.29</v>
+        <v>41.33</v>
       </c>
     </row>
     <row r="31">
@@ -1478,16 +1478,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D31" t="n">
-        <v>2182</v>
+        <v>2455</v>
       </c>
       <c r="E31" t="n">
-        <v>44.53</v>
+        <v>44.64</v>
       </c>
       <c r="F31" t="n">
         <v>69</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>37.51</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="32">
@@ -1512,31 +1512,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>2244</v>
+        <v>2414</v>
       </c>
       <c r="E32" t="n">
-        <v>44</v>
+        <v>43.89</v>
       </c>
       <c r="F32" t="n">
         <v>61</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>40.08</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="33">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
         <v>38</v>
